--- a/study2/presentation_for_paper/study2a_analysis_list.xlsx
+++ b/study2/presentation_for_paper/study2a_analysis_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/study/study2/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C483A894-D2B4-48B4-BF7B-88917131CB46}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70BC6E0-EA87-4438-A5CA-116C23D079D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Testing Hypothesis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Perceived Personalization,
 Perceived Credibility</t>
     <phoneticPr fontId="1"/>
@@ -117,24 +113,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Big Five Personality Scores (Personality Adapted Messaging)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H6.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H6.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H6.3
-H6.4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H6.5</t>
+    <t>Hypothesis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H3.2</t>
+  </si>
+  <si>
+    <t>H3.3
+H3.4</t>
+  </si>
+  <si>
+    <t>H3.5</t>
+  </si>
+  <si>
+    <t>H3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big Five Personality Scores (=Personality Adapted Messaging)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,25 +158,26 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -188,17 +186,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,24 +255,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -249,22 +320,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>121558</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47171</xdr:rowOff>
+      <xdr:rowOff>161471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8C5F2A-C935-00F7-787F-58652966A9DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906217DC-9AF4-8BED-A505-290F5C0D07E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -287,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="136072" y="108857"/>
-          <a:ext cx="9256486" cy="3340100"/>
+          <a:off x="381000" y="399142"/>
+          <a:ext cx="9448800" cy="3164115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -627,141 +698,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0C70AE-C798-4765-8779-5C2EA57DE01F}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="25.08203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:7" ht="5" customHeight="1"/>
+    <row r="2" spans="2:7" ht="20" customHeight="1">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="20" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="54" customHeight="1">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="49" customHeight="1">
+      <c r="B5" s="11">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="49" customHeight="1">
+      <c r="B6" s="11">
+        <f t="shared" ref="B6" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
+    <row r="7" spans="2:7" ht="49" customHeight="1">
+      <c r="B7" s="2">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58">
-      <c r="A4" s="5">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5" si="0">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="58">
-      <c r="A6" s="5">
-        <f>A5+1</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="8" spans="2:7" ht="4.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,7 +850,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/study2/presentation_for_paper/study2a_analysis_list.xlsx
+++ b/study2/presentation_for_paper/study2a_analysis_list.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study2/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70BC6E0-EA87-4438-A5CA-116C23D079D5}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{9D71C485-ABD1-480A-BF3B-6A54DBC8A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76917F74-5450-4346-A692-EF8F94FA5746}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{67012427-3811-46BE-B66C-BF0DC73F7589}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
+    <sheet name="stmd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1"/>
@@ -132,6 +134,64 @@
   </si>
   <si>
     <t>Big Five Personality Scores (=Personality Adapted Messaging)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H3.3, H3.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Quadratic Regression</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perceived Credibility</t>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Traits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O, C, E, A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E, A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Examining if the quadratic line direction changes when perceived personalization exceeds a threshold, focusing on perceived credibility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Examining if the quadratic line direction changes when perceived personalization exceeds a threshold, focusing on overall attitude toward the ad.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perceived Personalization, Squared Perceived Personalization</t>
+  </si>
+  <si>
+    <t>Perceived Personalization, Squared Perceived Personalization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big Five Personality Scores, Socioeconomic Scores, Perceived Credibility</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -177,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,54 +309,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,6 +506,76 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195384</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>328734</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232B5D3B-E5CB-8E46-573D-4E858024F6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="195384" y="128221"/>
+          <a:ext cx="11343542" cy="4244243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,7 +898,7 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="A1:H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -719,94 +916,94 @@
   <sheetData>
     <row r="1" spans="2:7" ht="5" customHeight="1"/>
     <row r="2" spans="2:7" ht="20" customHeight="1">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="20" customHeight="1">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="54" customHeight="1">
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="49" customHeight="1">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="49" customHeight="1">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <f t="shared" ref="B6" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -818,7 +1015,7 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -846,11 +1043,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2507FF-4557-4A7E-B6B7-85A73F2A8A69}">
+  <dimension ref="B1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="5" customHeight="1"/>
+    <row r="2" spans="2:12" ht="20" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:12" ht="20" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="54" customHeight="1">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>54/3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="36" customHeight="1">
+      <c r="B5" s="11">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <f>54-L4</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="54" customHeight="1">
+      <c r="B6" s="11">
+        <f t="shared" ref="B6" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="36" customHeight="1">
+      <c r="B7" s="11">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="54" customHeight="1">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="54" customHeight="1">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="4.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E215CF4-85B4-4B84-A2CF-85497D7B70D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9613AC6-950A-436C-BE7F-B144BF682706}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
